--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nthompson\Videos\hardware\Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nthompson\Videos\P8B-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,9 +60,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
     <t>32.768kHz</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>ST3215SB32768E0HPWBB</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>CONN_JTAG</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>http://www.digikey.com/product-detail/en/TPS61221DCKT/296-24171-2-ND/2003233</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>CONN_BATT</t>
   </si>
   <si>
@@ -237,21 +228,6 @@
     <t>SWITCH TACTILE SPST-NO 0.02A 15V</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/ERJ-6ENF1002V/P10.0KCCT-ND/119248</t>
-  </si>
-  <si>
-    <t>P10.0KCCT-ND</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF1002V</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
     <t>CONN_SHOULDER</t>
   </si>
   <si>
@@ -285,9 +261,6 @@
     <t>R1, R4</t>
   </si>
   <si>
-    <t>R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, 20</t>
-  </si>
-  <si>
     <t>C14, C15</t>
   </si>
   <si>
@@ -297,12 +270,6 @@
     <t>SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9, SW10, SW11, SW12, SW13, SW14, SW15</t>
   </si>
   <si>
-    <t>P9, P10</t>
-  </si>
-  <si>
-    <t>P12, P13</t>
-  </si>
-  <si>
     <t>D1, D2</t>
   </si>
   <si>
@@ -319,6 +286,39 @@
   </si>
   <si>
     <t>Crystal 32.7680kHz 20ppm 9pF 70 kOhm</t>
+  </si>
+  <si>
+    <t>BATT1</t>
+  </si>
+  <si>
+    <t>JS_R1, JS_L1</t>
+  </si>
+  <si>
+    <t>JTAG1</t>
+  </si>
+  <si>
+    <t>SH_L1, SH_R1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>DMN2050L</t>
+  </si>
+  <si>
+    <t>DMN2050LDICT-ND</t>
+  </si>
+  <si>
+    <t>DMN2050L-7</t>
+  </si>
+  <si>
+    <t>Alternate - SI2312</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/diodes-incorporated/DMN2050L-7/DMN2050LDICT-ND/1964751</t>
+  </si>
+  <si>
+    <t>X1</t>
   </si>
 </sst>
 </file>
@@ -1147,14 +1147,15 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
@@ -1168,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -1177,10 +1178,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -1197,7 +1198,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5">
         <v>68</v>
@@ -1212,69 +1213,69 @@
         <v>7.2899999999999996E-3</v>
       </c>
       <c r="F2">
-        <f>D2*C2</f>
+        <f t="shared" ref="F2:F17" si="0">D2*C2</f>
         <v>0.2</v>
       </c>
       <c r="G2">
-        <f>E2*C2</f>
+        <f t="shared" ref="G2:G17" si="1">E2*C2</f>
         <v>1.4579999999999999E-2</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E3">
-        <v>7.2899999999999996E-3</v>
+        <v>2.8879999999999999E-2</v>
       </c>
       <c r="F3">
-        <f>D3*C3</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="G3">
-        <f>E3*C3</f>
-        <v>0.10934999999999999</v>
+        <f t="shared" si="1"/>
+        <v>5.7759999999999999E-2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1283,479 +1284,479 @@
         <v>0.15</v>
       </c>
       <c r="E4">
-        <v>2.8879999999999999E-2</v>
+        <v>2.8330000000000001E-2</v>
       </c>
       <c r="F4">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="G4">
-        <f>E4*C4</f>
-        <v>5.7759999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.6660000000000002E-2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>2.8330000000000001E-2</v>
+        <v>1.077E-2</v>
       </c>
       <c r="F5">
-        <f>D5*C5</f>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <f>E5*C5</f>
-        <v>5.6660000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.077E-2</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
       <c r="E6">
-        <v>1.077E-2</v>
+        <v>0.44240000000000002</v>
       </c>
       <c r="F6">
-        <f>D6*C6</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0.76</v>
       </c>
       <c r="G6">
-        <f>E6*C6</f>
-        <v>1.077E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.44240000000000002</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="E7">
-        <v>0.44240000000000002</v>
+        <v>0.15640000000000001</v>
       </c>
       <c r="F7">
-        <f>D7*C7</f>
-        <v>0.76</v>
+        <f t="shared" si="0"/>
+        <v>0.34</v>
       </c>
       <c r="G7">
-        <f>E7*C7</f>
-        <v>0.44240000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.15640000000000001</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
       <c r="E8">
-        <v>0.15640000000000001</v>
+        <v>0.3498</v>
       </c>
       <c r="F8">
-        <f>D8*C8</f>
-        <v>0.34</v>
+        <f t="shared" si="0"/>
+        <v>9.75</v>
       </c>
       <c r="G8">
-        <f>E8*C8</f>
-        <v>0.15640000000000001</v>
+        <f t="shared" si="1"/>
+        <v>5.2469999999999999</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.65</v>
+        <v>0.17</v>
       </c>
       <c r="E9">
-        <v>0.3498</v>
+        <v>7.2370000000000004E-2</v>
       </c>
       <c r="F9">
-        <f>D9*C9</f>
-        <v>9.75</v>
+        <f t="shared" si="0"/>
+        <v>0.17</v>
       </c>
       <c r="G9">
-        <f>E9*C9</f>
-        <v>5.2469999999999999</v>
+        <f t="shared" si="1"/>
+        <v>7.2370000000000004E-2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.13075000000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0.17</v>
-      </c>
-      <c r="E10">
-        <v>7.2370000000000004E-2</v>
-      </c>
-      <c r="F10">
-        <f>D10*C10</f>
-        <v>0.17</v>
-      </c>
-      <c r="G10">
-        <f>E10*C10</f>
-        <v>7.2370000000000004E-2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.28999999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="E11">
-        <v>0.13075000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="F11">
-        <f>D11*C11</f>
-        <v>0.57999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.64</v>
       </c>
       <c r="G11">
-        <f>E11*C11</f>
-        <v>0.26150000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="E12">
-        <v>0.33</v>
+        <v>8.0509999999999998E-2</v>
       </c>
       <c r="F12">
-        <f>D12*C12</f>
-        <v>0.64</v>
+        <f t="shared" si="0"/>
+        <v>0.36</v>
       </c>
       <c r="G12">
-        <f>E12*C12</f>
-        <v>0.33</v>
+        <f t="shared" si="1"/>
+        <v>0.16102</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.18</v>
+        <v>7.5</v>
       </c>
       <c r="E13">
-        <v>8.0509999999999998E-2</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <f>D13*C13</f>
-        <v>0.36</v>
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
       <c r="G13">
-        <f>E13*C13</f>
-        <v>0.16102</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>317030026</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>7.5</v>
+        <v>0.27</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>5.0310000000000001E-2</v>
       </c>
       <c r="F14">
-        <f>D14*C14</f>
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>0.54</v>
       </c>
       <c r="G14">
-        <f>E14*C14</f>
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>317030026</v>
+        <f t="shared" si="1"/>
+        <v>0.10062</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.27</v>
+        <v>1.52</v>
       </c>
       <c r="E15">
-        <v>5.0310000000000001E-2</v>
+        <v>0.5575</v>
       </c>
       <c r="F15">
-        <f>D15*C15</f>
-        <v>0.54</v>
+        <f t="shared" si="0"/>
+        <v>1.52</v>
       </c>
       <c r="G15">
-        <f>E15*C15</f>
-        <v>0.10062</v>
+        <f t="shared" si="1"/>
+        <v>0.5575</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.52</v>
+        <v>0.41</v>
       </c>
       <c r="E16">
-        <v>0.5575</v>
+        <v>0.1575</v>
       </c>
       <c r="F16">
-        <f>D16*C16</f>
-        <v>1.52</v>
+        <f t="shared" ref="F16" si="2">D16*C16</f>
+        <v>0.41</v>
       </c>
       <c r="G16">
-        <f>E16*C16</f>
-        <v>0.5575</v>
+        <f t="shared" ref="G16" si="3">E16*C16</f>
+        <v>0.1575</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1767,25 +1768,25 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G17">
-        <f>E17*C17</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F18">
         <f>SUM(F2:F17)</f>
-        <v>29.56</v>
+        <v>28.47</v>
       </c>
       <c r="G18">
         <f>SUM(G2:G17)</f>
-        <v>17.577929999999999</v>
+        <v>17.626079999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1793,8 +1794,8 @@
     <sortCondition ref="B1:B57"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1"/>
-    <hyperlink ref="K12" r:id="rId2"/>
+    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="K11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
